--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,30 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -100,127 +85,133 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.96</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L6">
         <v>31</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
       <c r="M6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8181818181818182</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,49 +888,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7207792207792207</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8392857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5833333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5263157894736842</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,31 +1206,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>153</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.75</v>
+      </c>
+      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>9</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L14">
-        <v>41</v>
-      </c>
-      <c r="M14">
-        <v>41</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4761904761904762</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,477 +1306,357 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>236</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.6875</v>
+      </c>
+      <c r="L16">
+        <v>110</v>
+      </c>
+      <c r="M16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.6698113207547169</v>
+      </c>
+      <c r="L18">
+        <v>71</v>
+      </c>
+      <c r="M18">
+        <v>71</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>17</v>
       </c>
-      <c r="J16" s="1" t="s">
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.66</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K16">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="K21">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L21">
+        <v>41</v>
+      </c>
+      <c r="M21">
+        <v>41</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C17">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>151</v>
-      </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L17">
+      <c r="K22">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L23">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.625</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.5625</v>
+      </c>
+      <c r="L25">
+        <v>27</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>45</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5013054830287206</v>
+      </c>
+      <c r="L27">
+        <v>192</v>
+      </c>
+      <c r="M27">
+        <v>192</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L29">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="M29">
         <v>13</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2375</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>21</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>96</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.72</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.6438356164383562</v>
-      </c>
-      <c r="L23">
-        <v>47</v>
-      </c>
-      <c r="M23">
-        <v>47</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L24">
-        <v>17</v>
-      </c>
-      <c r="M24">
-        <v>17</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L25">
-        <v>14</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.5164319248826291</v>
-      </c>
-      <c r="L27">
-        <v>110</v>
-      </c>
-      <c r="M27">
-        <v>110</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.5</v>
-      </c>
-      <c r="L28">
-        <v>46</v>
-      </c>
-      <c r="M28">
-        <v>46</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1800,18 +1671,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4961240310077519</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L30">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="M30">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1823,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4930555555555556</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L31">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M31">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1849,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1875,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4736842105263158</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1901,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4705882352941176</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1927,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.45</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1953,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.4090909090909091</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1979,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K37">
         <v>0.35</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2005,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.2916666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2031,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.1842105263157895</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2057,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.03174603174603174</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2083,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>305</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.03170731707317073</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2109,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.0187793427230047</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2135,33 +2006,85 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>418</v>
+        <v>881</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.008028545941123996</v>
+        <v>0.01261682242990654</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O43">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1112</v>
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.01127577319587629</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>38</v>
+      </c>
+      <c r="N44">
+        <v>0.92</v>
+      </c>
+      <c r="O44">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.005315822388993121</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>0.85</v>
+      </c>
+      <c r="O45">
+        <v>0.15</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3181</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,25 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fears</t>
   </si>
   <si>
     <t>emergency</t>
@@ -73,12 +67,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,117 +85,123 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L4">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6538461538461539</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6232876712328768</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C6">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5862068965517241</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8303571428571429</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,31 +903,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L8">
+        <v>66</v>
+      </c>
+      <c r="M8">
+        <v>66</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>0.8043478260869565</v>
-      </c>
-      <c r="L8">
-        <v>37</v>
-      </c>
-      <c r="M8">
-        <v>37</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -956,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.7926829268292683</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3684210526315789</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,49 +1035,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.1996124031007752</v>
       </c>
       <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>413</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L11">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L11">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2666666666666667</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2151162790697674</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>405</v>
+        <v>159</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1904761904761905</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,120 +1203,72 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L15">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>78</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K14">
-        <v>0.75</v>
-      </c>
-      <c r="L14">
-        <v>27</v>
-      </c>
-      <c r="M14">
-        <v>27</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.08724832214765101</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>136</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
-      </c>
-      <c r="M15">
-        <v>90</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="C16">
+      <c r="K16">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>236</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.6875</v>
-      </c>
-      <c r="L16">
-        <v>110</v>
-      </c>
-      <c r="M16">
-        <v>110</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1330,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L17">
         <v>37</v>
       </c>
-      <c r="K17">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
       <c r="M17">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6698113207547169</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L18">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1408,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1434,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1460,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6382978723404256</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1491,16 +1440,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1512,12 +1461,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>0.625</v>
@@ -1543,16 +1492,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5625</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1564,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5056179775280899</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1590,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5013054830287206</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1616,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>191</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.4923076923076923</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1642,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4814814814814815</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1668,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4779661016949153</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1694,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4735294117647059</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L31">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1720,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4520547945205479</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1746,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3823529411764706</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1824,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3598326359832636</v>
+        <v>0.390625</v>
       </c>
       <c r="L36">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1850,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>153</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.35</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1876,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1902,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.2142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1928,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.04138702460850112</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L40">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1954,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>857</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.03349282296650718</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1980,15 +1929,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.02219755826859045</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L42">
         <v>20</v>
@@ -2006,73 +1955,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>881</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.01261682242990654</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2113</v>
+        <v>865</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.01127577319587629</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N44">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>3069</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.005315822388993121</v>
+        <v>0.01356407857811038</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>0.85</v>
@@ -2084,7 +2033,33 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>3181</v>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>0.008376288659793814</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>0.9</v>
+      </c>
+      <c r="O46">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
